--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6220" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222" uniqueCount="1274">
   <si>
     <t>Summary of the Random Forest Model</t>
   </si>
@@ -3832,6 +3832,12 @@
   </si>
   <si>
     <t>Error matrix for the Random Forest model on Samsung Data [preliminary test] (%):</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>of 5867 observations</t>
   </si>
 </sst>
 </file>
@@ -3862,7 +3868,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3885,21 +3891,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3912,10 +3921,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4221,10 +4239,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,35 +4253,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G3" s="6">
+        <f>5867-4106</f>
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -4275,7 +4300,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4285,49 +4310,49 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C8" s="10" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -4516,15 +4541,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -4688,23 +4713,23 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -4727,7 +4752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4750,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4773,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4796,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4819,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -4865,24 +4890,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -4905,7 +4930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4928,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -4950,8 +4975,16 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>+I51+I70</f>
+        <v>1652</v>
+      </c>
+      <c r="J47">
+        <f>+G3-I47</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -4997,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -5042,24 +5075,27 @@
       <c r="G51" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -5128,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5151,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5174,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5220,24 +5256,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5283,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -5306,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -5329,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -5352,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -5374,8 +5410,11 @@
       <c r="G70" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -5398,23 +5437,23 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -5437,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -5460,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -5483,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -5506,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -5529,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -5575,24 +5614,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="84" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -5615,7 +5654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -5638,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -5661,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -5684,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -5707,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -5730,7 +5769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -5753,24 +5792,32 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="95" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>14</v>
       </c>
@@ -5793,7 +5840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -5815,8 +5862,12 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f>+B98-B56</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -5838,8 +5889,16 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f>+C99-C57</f>
+        <v>-4</v>
+      </c>
+      <c r="J99">
+        <f>+D99-D57</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -5861,8 +5920,16 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f>+C100-C58</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f>+D100-D58</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -5884,8 +5951,12 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f>+E101-E59</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -5907,8 +5978,12 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f>+F102-F60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -5930,20 +6005,24 @@
       <c r="G103" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="M103">
+        <f>+G103-G61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A74:G74"/>
@@ -5956,6 +6035,7 @@
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A64:G64"/>
+    <mergeCell ref="H96:M96"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.3" bottom="0.34" header="0.3" footer="0.3"/>
@@ -5988,29 +6068,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>588</v>
       </c>
     </row>

--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -3904,7 +3904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3934,6 +3934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4241,8 +4244,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,9 +4286,8 @@
       <c r="E3" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="G3" s="6">
-        <f>5867-4106</f>
-        <v>1761</v>
+      <c r="G3" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4713,12 +4715,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
@@ -4729,7 +4731,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -4890,13 +4892,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>12</v>
       </c>
@@ -4907,7 +4909,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -4975,16 +4977,8 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="I47">
-        <f>+I51+I70</f>
-        <v>1652</v>
-      </c>
-      <c r="J47">
-        <f>+G3-I47</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -5053,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -5075,16 +5069,13 @@
       <c r="G51" s="1">
         <v>117</v>
       </c>
-      <c r="I51">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>12</v>
       </c>
@@ -5095,7 +5086,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5118,7 +5109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -5164,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5210,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -5233,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5256,13 +5247,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>12</v>
       </c>
